--- a/2_분석/0. 요구사항/20140602_RSS_요구사항정의서_v1.5.xlsx
+++ b/2_분석/0. 요구사항/20140602_RSS_요구사항정의서_v1.5.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="223">
   <si>
     <t xml:space="preserve"> 요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -896,7 +896,37 @@
   </si>
   <si>
     <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1333,10 +1363,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1352,9 +1385,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1628,7 +1658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1639,7 +1669,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1657,54 +1687,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="48" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="49"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="21" t="s">
         <v>132</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A3" s="40" t="s">
@@ -1850,7 +1880,7 @@
         <v>113</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="14"/>
@@ -1873,7 +1903,7 @@
         <v>113</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="14"/>
@@ -1896,7 +1926,7 @@
         <v>113</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="14"/>
@@ -2132,7 +2162,7 @@
         <v>113</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I20" s="35"/>
       <c r="J20" s="14"/>
@@ -2155,7 +2185,7 @@
         <v>113</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I21" s="35"/>
       <c r="J21" s="14"/>
@@ -2282,7 +2312,7 @@
         <v>113</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="14"/>
@@ -2303,7 +2333,7 @@
         <v>113</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="14" t="s">
@@ -2376,7 +2406,7 @@
         <v>113</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="I30" s="35"/>
       <c r="J30" s="14"/>
@@ -2551,7 +2581,7 @@
         <v>113</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="I37" s="35" t="s">
         <v>187</v>
@@ -2576,7 +2606,7 @@
         <v>113</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="I38" s="35" t="s">
         <v>188</v>
@@ -2626,7 +2656,7 @@
         <v>113</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I40" s="35"/>
       <c r="J40" s="14"/>
@@ -2894,7 +2924,7 @@
         <v>114</v>
       </c>
       <c r="H52" s="44"/>
-      <c r="I52" s="52" t="s">
+      <c r="I52" s="53" t="s">
         <v>107</v>
       </c>
       <c r="J52" s="18"/>
@@ -2917,7 +2947,7 @@
         <v>114</v>
       </c>
       <c r="H53" s="45"/>
-      <c r="I53" s="53"/>
+      <c r="I53" s="54"/>
       <c r="J53" s="18"/>
       <c r="K53" s="37"/>
     </row>
@@ -2938,7 +2968,7 @@
         <v>114</v>
       </c>
       <c r="H54" s="45"/>
-      <c r="I54" s="53"/>
+      <c r="I54" s="54"/>
       <c r="J54" s="18"/>
       <c r="K54" s="37"/>
     </row>
@@ -2959,7 +2989,7 @@
         <v>114</v>
       </c>
       <c r="H55" s="45"/>
-      <c r="I55" s="53"/>
+      <c r="I55" s="54"/>
       <c r="J55" s="18"/>
       <c r="K55" s="37"/>
     </row>
@@ -2980,7 +3010,7 @@
         <v>114</v>
       </c>
       <c r="H56" s="46"/>
-      <c r="I56" s="54"/>
+      <c r="I56" s="55"/>
       <c r="J56" s="18"/>
       <c r="K56" s="39"/>
     </row>
@@ -3045,7 +3075,7 @@
         <v>113</v>
       </c>
       <c r="H59" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I59" s="33"/>
       <c r="J59" s="14"/>
@@ -3069,17 +3099,17 @@
   </sheetData>
   <autoFilter ref="A2:K60"/>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I52:I56"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
